--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideReferObject.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideReferObject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -81,16 +81,7 @@
 3：Monster
 4：Boss
 5：Item物品
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【触发条件】3D参考值
-0：不填
-1：暂时不填
-2：NPC配置Id
-3：Monster配置Id
-4：Boss配置Id
-5：Item物品配置Id
+6：坐标
 </t>
   </si>
   <si>
@@ -147,82 +138,105 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,13 +257,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -258,33 +265,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,181 +308,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,36 +493,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -559,11 +520,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,173 +593,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1106,25 +1097,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="44.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="34.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="37.75" style="4" customWidth="1"/>
     <col min="5" max="5" width="42" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19" style="4" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="24.75" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,11 +1136,8 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="33.75" customHeight="1" spans="1:8">
+    <row r="2" s="2" customFormat="1" ht="33.75" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1172,11 +1159,8 @@
       <c r="G2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="206.25" spans="1:8">
+    <row r="3" s="3" customFormat="1" ht="182" customHeight="1" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1197,9 +1181,6 @@
       </c>
       <c r="G3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1208,9 +1189,14 @@
       <formula>AND(COUNTIF($B$3:$B$3,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF(#REF!,A1)+COUNTIF($B$4:$B$65436,A1)&gt;1,NOT(ISBLANK(A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1:H3">
+  <conditionalFormatting sqref="F1:F3">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+      <formula>AND(COUNTIF($B$3:$B$3,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF($B$4:$B$65436,F1)&gt;1,NOT(ISBLANK(F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G3">
     <cfRule type="expression" dxfId="0" priority="6" stopIfTrue="1">
-      <formula>AND(COUNTIF($B$3:$B$3,H1)+COUNTIF(#REF!,H1)+COUNTIF(#REF!,H1)+COUNTIF(#REF!,H1)+COUNTIF(#REF!,H1)+COUNTIF(#REF!,H1)+COUNTIF(#REF!,H1)+COUNTIF(#REF!,H1)+COUNTIF(#REF!,H1)+COUNTIF($B$4:$B$65419,H1)&gt;1,NOT(ISBLANK(H1)))</formula>
+      <formula>AND(COUNTIF($B$3:$B$3,G1)+COUNTIF(#REF!,G1)+COUNTIF(#REF!,G1)+COUNTIF(#REF!,G1)+COUNTIF(#REF!,G1)+COUNTIF(#REF!,G1)+COUNTIF(#REF!,G1)+COUNTIF(#REF!,G1)+COUNTIF(#REF!,G1)+COUNTIF($B$4:$B$65419,G1)&gt;1,NOT(ISBLANK(G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:E3">
@@ -1218,14 +1204,9 @@
       <formula>AND(COUNTIF($B$3:$B$3,B1)+COUNTIF(#REF!,B1)+COUNTIF(#REF!,B1)+COUNTIF(#REF!,B1)+COUNTIF(#REF!,B1)+COUNTIF(#REF!,B1)+COUNTIF(#REF!,B1)+COUNTIF(#REF!,B1)+COUNTIF(#REF!,B1)+COUNTIF($B$4:$B$65436,B1)&gt;1,NOT(ISBLANK(B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1:G3">
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
-      <formula>AND(COUNTIF($B$3:$B$3,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF(#REF!,F1)+COUNTIF($B$4:$B$65436,F1)&gt;1,NOT(ISBLANK(F1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:XFD3">
+  <conditionalFormatting sqref="H1:XFD3">
     <cfRule type="expression" dxfId="0" priority="20" stopIfTrue="1">
-      <formula>AND(COUNTIF($B$3:$B$3,I1)+COUNTIF(#REF!,I1)+COUNTIF(#REF!,I1)+COUNTIF(#REF!,I1)+COUNTIF(#REF!,I1)+COUNTIF(#REF!,I1)+COUNTIF(#REF!,I1)+COUNTIF(#REF!,I1)+COUNTIF(#REF!,I1)+COUNTIF($B$4:$B$65419,I1)&gt;1,NOT(ISBLANK(I1)))</formula>
+      <formula>AND(COUNTIF($B$3:$B$3,H1)+COUNTIF(#REF!,H1)+COUNTIF(#REF!,H1)+COUNTIF(#REF!,H1)+COUNTIF(#REF!,H1)+COUNTIF(#REF!,H1)+COUNTIF(#REF!,H1)+COUNTIF(#REF!,H1)+COUNTIF(#REF!,H1)+COUNTIF($B$4:$B$65419,H1)&gt;1,NOT(ISBLANK(H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideReferObject.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideReferObject.xlsx
@@ -25,10 +25,10 @@
     <t>refer2DValue</t>
   </si>
   <si>
-    <t>refer2DSearchCondition</t>
-  </si>
-  <si>
-    <t>refer2DSearchConditionValue</t>
+    <t>refer2DSearchDynamicConditionType</t>
+  </si>
+  <si>
+    <t>refer2DSearchDynamicConditionValue</t>
   </si>
   <si>
     <t>refer3DType</t>
@@ -46,7 +46,7 @@
     <t>参考对象Id</t>
   </si>
   <si>
-    <t xml:space="preserve">【触发条件】2D参考类型
+    <t xml:space="preserve">2D参考类型
 0：无参考对象
 1：UI窗口
 2：UI窗口控件
@@ -54,7 +54,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">【触发条件】2D参考值
+    <t xml:space="preserve">2D参考值
 0：不填
 1：【窗口名称|遮罩控件名称】
 2：【窗口名称|控件名称|相对于控件子节点Graphic遮罩名称】
@@ -62,19 +62,19 @@
 </t>
   </si>
   <si>
-    <t>【触发条件】2D动态组件搜索条件
+    <t>2D动态组件搜索条件
 0：索引
 1：物品
 2：装备</t>
   </si>
   <si>
-    <t>【触发条件】2D动态组件搜索值
+    <t>2D动态组件搜索值
 0：索引值
 1：物品配置ID
 2：装备配置ID</t>
   </si>
   <si>
-    <t xml:space="preserve">【触发条件】3D参考类型
+    <t xml:space="preserve">3D参考类型
 0：无参考对象
 1：Player玩家
 2：NPC
@@ -85,7 +85,7 @@
 </t>
   </si>
   <si>
-    <t>【验证条件】3D参考值
+    <t>3D参考值
 0：不填
 1：暂时不填
 2：NPC配置Id
@@ -100,10 +100,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="23">
@@ -138,12 +138,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -152,23 +174,69 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,6 +250,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -191,91 +275,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,43 +308,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,133 +482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -493,6 +493,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -520,36 +535,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -568,13 +553,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -593,153 +582,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,7 +1100,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1108,8 +1108,8 @@
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="44.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.75" style="4" customWidth="1"/>
-    <col min="5" max="5" width="42" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49" style="4" customWidth="1"/>
+    <col min="5" max="5" width="47.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="24.75" style="4" customWidth="1"/>
   </cols>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideReferObject.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideReferObject.xlsx
@@ -47,18 +47,16 @@
   </si>
   <si>
     <t xml:space="preserve">2D参考类型
-0：无参考对象
-1：UI窗口
-2：UI窗口控件
-3：UI窗口动态生成控件
+0：无参考对对象
+1：UI窗口控件
+2：UI窗口动态生成控件
 </t>
   </si>
   <si>
     <t xml:space="preserve">2D参考值
 0：不填
-1：【窗口名称|遮罩控件名称】
-2：【窗口名称|控件名称|相对于控件子节点Graphic遮罩名称】
-3：【窗口名称|动态控件父节点名称|动态控件模板名称|相对于动态控件模板子节点Graphic遮罩名称】
+1：【窗口名称|控件名称|相对于控件子节点Graphic遮罩名称】
+2：【窗口名称|动态控件父节点名称|动态控件模板名称|相对于动态控件模板子节点Graphic遮罩名称】
 </t>
   </si>
   <si>
@@ -100,10 +98,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="23">
@@ -138,60 +136,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,8 +209,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,14 +256,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -250,32 +272,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,48 +306,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -362,127 +474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,44 +509,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -568,28 +550,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,46 +596,46 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,100 +644,100 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,7 +1098,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideReferObject.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideReferObject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>id</t>
   </si>
@@ -53,7 +53,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2D参考值
+    <t xml:space="preserve">2D参考值【Graphic遮罩名称不填则默认为控件本身】
 0：不填
 1：【窗口名称|控件名称|相对于控件子节点Graphic遮罩名称】
 2：【窗口名称|动态控件父节点名称|动态控件模板名称|相对于动态控件模板子节点Graphic遮罩名称】
@@ -92,16 +92,19 @@
 5：Item物品配置Id
 6：坐标(x,y,z)</t>
   </si>
+  <si>
+    <t>ExampleLobbyWindow|btn1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="23">
@@ -136,59 +139,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,7 +191,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,32 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,19 +221,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,25 +309,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,31 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,115 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +494,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -509,32 +532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -546,24 +543,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,153 +570,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1095,13 +1098,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="4" customWidth="1"/>
@@ -1179,6 +1182,29 @@
       </c>
       <c r="G3" s="3" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideReferObject.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideReferObject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -95,16 +95,19 @@
   <si>
     <t>ExampleLobbyWindow|btn1</t>
   </si>
+  <si>
+    <t>ExampleLobbyWindow|btn2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="23">
@@ -141,6 +144,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -153,17 +163,109 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,108 +277,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,181 +312,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,6 +497,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -517,45 +583,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -570,177 +597,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,13 +1101,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="4" customWidth="1"/>
@@ -1204,6 +1207,29 @@
         <v>0</v>
       </c>
       <c r="G4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
         <v>0</v>
       </c>
     </row>

--- a/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideReferObject.xlsx
+++ b/StrayFogUnity/Assets/Game/Editor/XLS_Config/UserGuideReferObject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -93,10 +93,16 @@
 6：坐标(x,y,z)</t>
   </si>
   <si>
-    <t>ExampleLobbyWindow|btn1</t>
-  </si>
-  <si>
-    <t>ExampleLobbyWindow|btn2</t>
+    <t>ExampleLobbyWindow|btnGuideRight</t>
+  </si>
+  <si>
+    <t>ExampleLobbyWindow|btnGuideTop</t>
+  </si>
+  <si>
+    <t>ExampleLobbyWindow|btnGuideLeft</t>
+  </si>
+  <si>
+    <t>ExampleLobbyWindow|btnGuideButtom</t>
   </si>
 </sst>
 </file>
@@ -105,9 +111,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="000000"/>
   </numFmts>
   <fonts count="23">
@@ -149,6 +155,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -156,100 +176,48 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,11 +229,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -279,7 +247,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,49 +318,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,127 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,39 +522,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -565,10 +538,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -578,7 +549,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,6 +583,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0">
@@ -605,10 +611,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -617,7 +623,7 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
@@ -626,124 +632,124 @@
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,13 +1107,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="14" style="4" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="4" customWidth="1"/>
@@ -1230,6 +1236,52 @@
         <v>0</v>
       </c>
       <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
         <v>0</v>
       </c>
     </row>
